--- a/_DATA185_F23_logistics.xlsx
+++ b/_DATA185_F23_logistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DATA185\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5F347D-4900-4B08-A943-B25133A14DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D423FAC-A546-4754-93D4-CAFF610D01D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{8EEF0BA9-6BF2-416B-B44A-FAFAC72DB9F4}"/>
+    <workbookView xWindow="1605" yWindow="1665" windowWidth="24360" windowHeight="15615" activeTab="3" xr2:uid="{8EEF0BA9-6BF2-416B-B44A-FAFAC72DB9F4}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="320">
   <si>
     <t>01</t>
   </si>
@@ -1139,9 +1139,6 @@
     </r>
   </si>
   <si>
-    <t>Who are we in this class? What do we have in common? What  ideas or perspectives do each of us bring? How can you be successful in this class? How does Data influence our lives?</t>
-  </si>
-  <si>
     <t>Welcome</t>
   </si>
   <si>
@@ -1385,18 +1382,6 @@
     </r>
   </si>
   <si>
-    <t>Lab 02: Intro to Excel</t>
-  </si>
-  <si>
-    <t>[BBB 1.2: Welcome to the digital Age](https://www.bitbybitbook.com/en/1st-ed/introduction/digital-age/)
-[R4DS Intro](https://r4ds.hadley.nz/intro.html)
-[Data8 1](What is Data Science (https://inferentialthinking.com/chapters/01/what-is-data-science.html)
-[Data8 1.1](Intro https://inferentialthinking.com/chapters/01/1/intro.html)
-[Data8 1.1.2](Statistical Techniques https://inferentialthinking.com/chapters/01/1/2/statistical-techniques.html)
-[Data8 1.2](Why Data Science https://inferentialthinking.com/chapters/01/2/why-data-science.html)
-[IMS 1.2](Data Basics https://openintro-ims.netlify.app/data-hello.html#data-basics)</t>
-  </si>
-  <si>
     <t xml:space="preserve">* [Share out] Google "day in the life of a data scientist" or "data analyst"  or "how to become a data scientist" and and find someone that resonates with you. Share the  link in discord, and briefly describe what you learned from them. (https://www.youtube.com/watch?v=5O9abIxIqNA, https://www.youtube.com/watch?v=Z79AqDouS-Y) 
 * [connect] Watch and comment on at least one other persons post. 
 </t>
@@ -1411,11 +1396,6 @@
   </si>
   <si>
     <t>[Lab 01: Intro to Computing for Data Science](/practice/lab01-computing.html)</t>
-  </si>
-  <si>
-    <t>[1] Start to form community of learners. 
-[2] Navigate the course materials, identify and understand the policies &amp; code of conduct
-[3] Create a file organizational strategy, and install software. [CO1e]* install &amp; connect to required software/programs</t>
   </si>
   <si>
     <r>
@@ -1462,27 +1442,79 @@
     <t>LJ</t>
   </si>
   <si>
-    <t xml:space="preserve">act01 - toolkit
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In class intros: Who are you, where are you from, why are you here? 
-LJ -01: 321 bridge. What is Data Science? 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">LJ -02: How does data influence your life?
 </t>
   </si>
   <si>
-    <t>[Syllabus](syllabus.html)
-[BBB 1.1: Inkblot](https://www.bitbybitbook.com/en/1st-ed/introduction/ink-blot/)</t>
-  </si>
-  <si>
     <t>Checklist</t>
   </si>
   <si>
     <t>Getting Started</t>
+  </si>
+  <si>
+    <t>Lab 02: Intro to Spreadsheets</t>
+  </si>
+  <si>
+    <t>Lab 03: Intro to R</t>
+  </si>
+  <si>
+    <t>Lab 04: Visualizing data with R</t>
+  </si>
+  <si>
+    <t>Lab 05: More with Spreadsheets</t>
+  </si>
+  <si>
+    <t>Lab 06: Data Preparation</t>
+  </si>
+  <si>
+    <t>Who are we in this class? What do we have in common? What  ideas or perspectives do each of us bring? How can you be successful in this class? How does data influence our lives?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In class intros: Who are you, where are you from, why are you here?   
+LJ -01: What is Data Science? (321 bridge in class)
+</t>
+  </si>
+  <si>
+    <t>Start to form community of learners. 
+Navigate the course materials, identify and understand the policies &amp; code of conduct
+Create a file organizational strategy, and install software. [CO1e]</t>
+  </si>
+  <si>
+    <t>* OH survey
+* Join Discord - Post introduction
+* Watch intro video</t>
+  </si>
+  <si>
+    <t>[R4DS Intro](https://r4ds.hadley.nz/intro.html)
+[Data8 1](What is Data Science (https://inferentialthinking.com/chapters/01/what-is-data-science.html)
+[Data8 1.1](Intro https://inferentialthinking.com/chapters/01/1/intro.html)
+[Data8 1.1.2](Statistical Techniques https://inferentialthinking.com/chapters/01/1/2/statistical-techniques.html)
+[Data8 1.2](Why Data Science https://inferentialthinking.com/chapters/01/2/why-data-science.html)
+[IMS 1.2](Data Basics https://openintro-ims.netlify.app/data-hello.html#data-basics)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[Syllabus](syllabus.html)
+[cn00-welcome](notes/cn00-welcome.qmd)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[BBB 1.1: Inkblot](https://www.bitbybitbook.com/en/1st-ed/introduction/ink-blot/)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1835,7 +1867,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
@@ -2040,6 +2072,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2057,22 +2107,7 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2410,7 +2445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D366DCB5-0C09-4243-87DB-31A18924021A}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C7" sqref="C7"/>
       <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
@@ -3360,46 +3395,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
       <c r="H1" s="55"/>
-      <c r="I1" s="77" t="s">
+      <c r="I1" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="77"/>
-      <c r="K1" s="78" t="s">
+      <c r="J1" s="83"/>
+      <c r="K1" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="73" t="s">
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="75" t="s">
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="76" t="s">
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
       <c r="Z1" s="54"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
       <c r="AC1" s="57" t="s">
         <v>31</v>
       </c>
@@ -4890,10 +4925,10 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4920,35 +4955,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="80" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="82" t="s">
+        <v>239</v>
+      </c>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="76" t="s">
+        <v>307</v>
+      </c>
+      <c r="N1" s="74" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="76" t="s">
-        <v>240</v>
-      </c>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="82" t="s">
-        <v>314</v>
-      </c>
-      <c r="N1" s="80" t="s">
-        <v>308</v>
-      </c>
-      <c r="O1" s="79" t="s">
+      <c r="O1" s="73" t="s">
         <v>2</v>
       </c>
       <c r="P1" s="70" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q1" s="71" t="s">
         <v>16</v>
@@ -4962,7 +4997,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>91</v>
@@ -4983,10 +5018,10 @@
         <v>14</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K2" s="37" t="s">
         <v>39</v>
@@ -4994,17 +5029,17 @@
       <c r="L2" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="83" t="s">
+      <c r="M2" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="N2" s="75" t="s">
         <v>32</v>
       </c>
       <c r="O2" s="38" t="s">
         <v>33</v>
       </c>
       <c r="P2" s="38" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q2" s="31" t="s">
         <v>25</v>
@@ -5015,52 +5050,52 @@
     </row>
     <row r="3" spans="1:18" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F3" s="29" t="s">
         <v>85</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>237</v>
+        <v>314</v>
       </c>
       <c r="H3" s="29" t="s">
         <v>236</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="J3" s="69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>244</v>
+        <v>319</v>
+      </c>
+      <c r="L3" s="72" t="s">
+        <v>243</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="N3" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="P3" s="29" t="s">
-        <v>311</v>
+        <v>317</v>
+      </c>
+      <c r="N3" s="72" t="s">
+        <v>298</v>
+      </c>
+      <c r="P3" s="85" t="s">
+        <v>315</v>
       </c>
       <c r="Q3" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R3" s="52" t="s">
         <v>232</v>
@@ -5068,83 +5103,86 @@
     </row>
     <row r="4" spans="1:18" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>213</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="N4" s="29" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="P4" s="29" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C5" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="I5" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>283</v>
-      </c>
       <c r="K5" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>134</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>142</v>
@@ -5152,28 +5190,34 @@
       <c r="I6" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="K6" s="84"/>
+      <c r="K6" s="78"/>
       <c r="L6" s="29" t="s">
-        <v>300</v>
+        <v>297</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="B7" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="B8" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>139</v>
@@ -5182,29 +5226,32 @@
         <v>140</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>141</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>260</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="195" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>143</v>
@@ -5216,32 +5263,32 @@
         <v>124</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="90" x14ac:dyDescent="0.25">
@@ -5252,38 +5299,38 @@
         <v>107</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>255</v>
-      </c>
       <c r="I14" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>116</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="180" x14ac:dyDescent="0.25">
@@ -5294,7 +5341,7 @@
         <v>165</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="150" x14ac:dyDescent="0.25">
@@ -5302,13 +5349,13 @@
         <v>36</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
